--- a/data/(TEMPLATE).xlsx
+++ b/data/(TEMPLATE).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damia\stock-portfolio-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD25F2DB-600F-4811-A9C8-0A90158FE411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C564832-FB40-4873-A23C-EF538C15230F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{115C44F0-6A82-46B5-8417-C4D48A14C9E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="2" xr2:uid="{115C44F0-6A82-46B5-8417-C4D48A14C9E7}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
@@ -638,10 +638,6 @@
     <xf numFmtId="164" fontId="21" fillId="34" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="21" fillId="34" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -711,80 +707,6 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F4F4"/>
-          <bgColor rgb="FFF3F4F4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFD3D3D3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFD3D3D3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F4F4"/>
-          <bgColor rgb="FFF3F4F4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFD3D3D3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFD3D3D3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF3F4F4"/>
@@ -858,190 +780,7 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F4F4"/>
-          <bgColor rgb="FFF3F4F4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFD3D3D3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFD3D3D3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F4F4"/>
-          <bgColor rgb="FFF3F4F4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFD3D3D3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFD3D3D3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F4F4"/>
-          <bgColor rgb="FFF3F4F4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFD3D3D3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFD3D3D3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F4F4"/>
-          <bgColor rgb="FFF3F4F4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFD3D3D3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFD3D3D3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F4F4"/>
-          <bgColor rgb="FFF3F4F4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFD3D3D3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFD3D3D3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF3F4F4"/>
@@ -1223,7 +962,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1239,6 +978,229 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F4F4"/>
+          <bgColor rgb="FFF3F4F4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFD3D3D3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD3D3D3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F4F4"/>
+          <bgColor rgb="FFF3F4F4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFD3D3D3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD3D3D3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F4F4"/>
+          <bgColor rgb="FFF3F4F4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFD3D3D3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD3D3D3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F4F4"/>
+          <bgColor rgb="FFF3F4F4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFD3D3D3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD3D3D3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F4F4"/>
+          <bgColor rgb="FFF3F4F4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFD3D3D3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD3D3D3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F4F4"/>
+          <bgColor rgb="FFF3F4F4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFD3D3D3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD3D3D3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF3F4F4"/>
@@ -1282,6 +1244,52 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFD3D3D3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD3D3D3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F4F4"/>
+          <bgColor rgb="FFF3F4F4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFD3D3D3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD3D3D3"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1308,18 +1316,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFD3D3D3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFD3D3D3"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1361,33 +1357,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD23C1FD-F791-4788-BE8E-5DFF55EA82B9}" name="Tabela2" displayName="Tabela2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD23C1FD-F791-4788-BE8E-5DFF55EA82B9}" name="Tabela2" displayName="Tabela2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:I2" xr:uid="{EC0EC853-CE6E-466A-BD1E-90812C23BB1C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{81DF196B-9368-449A-9D4E-E7200AC9A1D4}" name="Symbol" dataDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{C3F00B1B-8A22-4472-BAB9-B7433DDCDDB5}" name="Type" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{D81A4A9E-6DDD-4E23-B80F-AA94FDAD1E56}" name="Volume" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{0DCC4246-924D-4541-A569-B45FB0232377}" name="Open time" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{AE3D36FE-1E48-42F4-85E2-DE485B2B782D}" name="Open price" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{DFD08C5D-26D7-4B9B-ACDE-DC38B3712335}" name="Close time" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{81DF196B-9368-449A-9D4E-E7200AC9A1D4}" name="Symbol" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{C3F00B1B-8A22-4472-BAB9-B7433DDCDDB5}" name="Type" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{D81A4A9E-6DDD-4E23-B80F-AA94FDAD1E56}" name="Volume" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{0DCC4246-924D-4541-A569-B45FB0232377}" name="Open time" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{AE3D36FE-1E48-42F4-85E2-DE485B2B782D}" name="Open price" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{DFD08C5D-26D7-4B9B-ACDE-DC38B3712335}" name="Close time" dataDxfId="11" dataCellStyle="Normal"/>
     <tableColumn id="7" xr3:uid="{38067F0F-213D-4C93-964C-F64FFEF2E888}" name="Close price" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{E1BA4576-9406-4B90-9F58-2E82E27BC059}" name="Purchase value" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{218A8DD5-4E8D-426C-8590-D59B9BC91938}" name="Sale value" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{E1BA4576-9406-4B90-9F58-2E82E27BC059}" name="Purchase value" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{218A8DD5-4E8D-426C-8590-D59B9BC91938}" name="Sale value" dataDxfId="8" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C7ADABA4-034F-4DB6-B320-764118E8EA4B}" name="Tabela1" displayName="Tabela1" ref="A1:F2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C7ADABA4-034F-4DB6-B320-764118E8EA4B}" name="Tabela1" displayName="Tabela1" ref="A1:F2" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:F2" xr:uid="{7A5B38EF-8496-478B-A9F3-EDE819DD4D3D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B749A9B2-B802-42BB-95E2-0D347382E60E}" name="Symbol" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{B749A9B2-B802-42BB-95E2-0D347382E60E}" name="Symbol" dataDxfId="5" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{4801BA68-BD7D-4131-9F45-38A7FCFFF0B1}" name="Type" dataDxfId="4" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{6E477BC2-B2F4-4D46-8D5C-45D2B07CD746}" name="Volume" dataDxfId="3" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{9EBE8792-A6BB-4EBB-8211-2D4F63DC898D}" name="Open time" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{262E1A8A-D057-479E-A846-D14F8ED56AE0}" name="Open price" dataDxfId="0" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{103A86B0-E8B6-45D8-91C2-99C13343CCA4}" name="Purchase value" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{262E1A8A-D057-479E-A846-D14F8ED56AE0}" name="Open price" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{103A86B0-E8B6-45D8-91C2-99C13343CCA4}" name="Purchase value" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1726,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE23DF8-8D8B-4A45-9CF2-F8692E2D2C85}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1737,7 +1733,7 @@
     <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -1760,7 +1756,7 @@
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1783,13 +1779,13 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>45684.894097222219</v>
       </c>
       <c r="E2" s="5">
         <v>30.03</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>45707.775081018517</v>
       </c>
       <c r="G2" s="5">
@@ -1814,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549F6162-5787-4D11-8011-C4B5F83495F4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1841,7 +1837,7 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1861,7 +1857,7 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>45693.651875000003</v>
       </c>
       <c r="E2" s="5">
